--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.774728</v>
+        <v>37.25348366666667</v>
       </c>
       <c r="H2">
-        <v>50.324184</v>
+        <v>111.760451</v>
       </c>
       <c r="I2">
-        <v>0.05994606310631356</v>
+        <v>0.1217494480156564</v>
       </c>
       <c r="J2">
-        <v>0.05994606310631357</v>
+        <v>0.1217494480156564</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N2">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q2">
-        <v>0.6735724281119999</v>
+        <v>0.590889922264889</v>
       </c>
       <c r="R2">
-        <v>6.062151853007999</v>
+        <v>5.318009300384</v>
       </c>
       <c r="S2">
-        <v>7.058010984630683E-06</v>
+        <v>4.029711059458754E-06</v>
       </c>
       <c r="T2">
-        <v>7.058010984630685E-06</v>
+        <v>4.029711059458753E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.774728</v>
+        <v>37.25348366666667</v>
       </c>
       <c r="H3">
-        <v>50.324184</v>
+        <v>111.760451</v>
       </c>
       <c r="I3">
-        <v>0.05994606310631356</v>
+        <v>0.1217494480156564</v>
       </c>
       <c r="J3">
-        <v>0.05994606310631357</v>
+        <v>0.1217494480156564</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N3">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O3">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P3">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q3">
-        <v>47.87549867177599</v>
+        <v>372.2588380240082</v>
       </c>
       <c r="R3">
-        <v>430.879488045984</v>
+        <v>3350.329542216074</v>
       </c>
       <c r="S3">
-        <v>0.0005016621545320744</v>
+        <v>0.00253870560326486</v>
       </c>
       <c r="T3">
-        <v>0.0005016621545320746</v>
+        <v>0.002538705603264859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.774728</v>
+        <v>37.25348366666667</v>
       </c>
       <c r="H4">
-        <v>50.324184</v>
+        <v>111.760451</v>
       </c>
       <c r="I4">
-        <v>0.05994606310631356</v>
+        <v>0.1217494480156564</v>
       </c>
       <c r="J4">
-        <v>0.05994606310631357</v>
+        <v>0.1217494480156564</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N4">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O4">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P4">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q4">
-        <v>5670.057375726519</v>
+        <v>17400.25167399658</v>
       </c>
       <c r="R4">
-        <v>51030.51638153868</v>
+        <v>156602.2650659692</v>
       </c>
       <c r="S4">
-        <v>0.0594135471868063</v>
+        <v>0.118665057510723</v>
       </c>
       <c r="T4">
-        <v>0.05941354718680632</v>
+        <v>0.118665057510723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.774728</v>
+        <v>37.25348366666667</v>
       </c>
       <c r="H5">
-        <v>50.324184</v>
+        <v>111.760451</v>
       </c>
       <c r="I5">
-        <v>0.05994606310631356</v>
+        <v>0.1217494480156564</v>
       </c>
       <c r="J5">
-        <v>0.05994606310631357</v>
+        <v>0.1217494480156564</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N5">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q5">
-        <v>2.270917944032</v>
+        <v>79.4247003695469</v>
       </c>
       <c r="R5">
-        <v>20.438261496288</v>
+        <v>714.822303325922</v>
       </c>
       <c r="S5">
-        <v>2.379575399055328E-05</v>
+        <v>0.0005416551906090597</v>
       </c>
       <c r="T5">
-        <v>2.379575399055328E-05</v>
+        <v>0.0005416551906090595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>53.830537</v>
       </c>
       <c r="I6">
-        <v>0.06412282349275146</v>
+        <v>0.05864183713911792</v>
       </c>
       <c r="J6">
-        <v>0.06412282349275146</v>
+        <v>0.05864183713911791</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N6">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q6">
-        <v>0.7205037942326666</v>
+        <v>0.2846080302897778</v>
       </c>
       <c r="R6">
-        <v>6.484534148093999</v>
+        <v>2.561472272608</v>
       </c>
       <c r="S6">
-        <v>7.549780071040366E-06</v>
+        <v>1.940950562963491E-06</v>
       </c>
       <c r="T6">
-        <v>7.549780071040366E-06</v>
+        <v>1.94095056296349E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>53.830537</v>
       </c>
       <c r="I7">
-        <v>0.06412282349275146</v>
+        <v>0.05864183713911792</v>
       </c>
       <c r="J7">
-        <v>0.06412282349275146</v>
+        <v>0.05864183713911791</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N7">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O7">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P7">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q7">
-        <v>51.21123876831244</v>
+        <v>179.3021858316264</v>
       </c>
       <c r="R7">
-        <v>460.901148914812</v>
+        <v>1613.719672484638</v>
       </c>
       <c r="S7">
-        <v>0.0005366156194611828</v>
+        <v>0.001222792899329445</v>
       </c>
       <c r="T7">
-        <v>0.0005366156194611829</v>
+        <v>0.001222792899329444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>53.830537</v>
       </c>
       <c r="I8">
-        <v>0.06412282349275146</v>
+        <v>0.05864183713911792</v>
       </c>
       <c r="J8">
-        <v>0.06412282349275146</v>
+        <v>0.05864183713911791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N8">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O8">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P8">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q8">
-        <v>6065.12036749904</v>
+        <v>8381.004936588748</v>
       </c>
       <c r="R8">
-        <v>54586.08330749136</v>
+        <v>75429.04442929872</v>
       </c>
       <c r="S8">
-        <v>0.06355320436274978</v>
+        <v>0.05715620965897949</v>
       </c>
       <c r="T8">
-        <v>0.06355320436274978</v>
+        <v>0.05715620965897947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>53.830537</v>
       </c>
       <c r="I9">
-        <v>0.06412282349275146</v>
+        <v>0.05864183713911792</v>
       </c>
       <c r="J9">
-        <v>0.06412282349275146</v>
+        <v>0.05864183713911791</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N9">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O9">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P9">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q9">
-        <v>2.429144850320444</v>
+        <v>38.25569988042378</v>
       </c>
       <c r="R9">
-        <v>21.862303652884</v>
+        <v>344.301298923814</v>
       </c>
       <c r="S9">
-        <v>2.545373046945731E-05</v>
+        <v>0.0002608936302460254</v>
       </c>
       <c r="T9">
-        <v>2.545373046945731E-05</v>
+        <v>0.0002608936302460253</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.30638166666666</v>
+        <v>39.034568</v>
       </c>
       <c r="H10">
-        <v>117.919145</v>
+        <v>117.103704</v>
       </c>
       <c r="I10">
-        <v>0.1404650397831098</v>
+        <v>0.1275702736971669</v>
       </c>
       <c r="J10">
-        <v>0.1404650397831098</v>
+        <v>0.1275702736971669</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N10">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O10">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P10">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q10">
-        <v>1.578308449443333</v>
+        <v>0.6191402945706668</v>
       </c>
       <c r="R10">
-        <v>14.20477604499</v>
+        <v>5.572262651136</v>
       </c>
       <c r="S10">
-        <v>1.653826360519345E-05</v>
+        <v>4.222371034565566E-06</v>
       </c>
       <c r="T10">
-        <v>1.653826360519345E-05</v>
+        <v>4.222371034565565E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.30638166666666</v>
+        <v>39.034568</v>
       </c>
       <c r="H11">
-        <v>117.919145</v>
+        <v>117.103704</v>
       </c>
       <c r="I11">
-        <v>0.1404650397831098</v>
+        <v>0.1275702736971669</v>
       </c>
       <c r="J11">
-        <v>0.1404650397831098</v>
+        <v>0.1275702736971669</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N11">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O11">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P11">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q11">
-        <v>112.1814090383355</v>
+        <v>390.0564858972107</v>
       </c>
       <c r="R11">
-        <v>1009.63268134502</v>
+        <v>3510.508373074896</v>
       </c>
       <c r="S11">
-        <v>0.001175489946171409</v>
+        <v>0.002660080796451596</v>
       </c>
       <c r="T11">
-        <v>0.001175489946171409</v>
+        <v>0.002660080796451595</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.30638166666666</v>
+        <v>39.034568</v>
       </c>
       <c r="H12">
-        <v>117.919145</v>
+        <v>117.103704</v>
       </c>
       <c r="I12">
-        <v>0.1404650397831098</v>
+        <v>0.1275702736971669</v>
       </c>
       <c r="J12">
-        <v>0.1404650397831098</v>
+        <v>0.1275702736971669</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N12">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O12">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P12">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q12">
-        <v>13286.02402865816</v>
+        <v>18232.15550156647</v>
       </c>
       <c r="R12">
-        <v>119574.2162579235</v>
+        <v>164089.3995140982</v>
       </c>
       <c r="S12">
-        <v>0.1392172535909445</v>
+        <v>0.1243384188730474</v>
       </c>
       <c r="T12">
-        <v>0.1392172535909446</v>
+        <v>0.1243384188730473</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.30638166666666</v>
+        <v>39.034568</v>
       </c>
       <c r="H13">
-        <v>117.919145</v>
+        <v>117.103704</v>
       </c>
       <c r="I13">
-        <v>0.1404650397831098</v>
+        <v>0.1275702736971669</v>
       </c>
       <c r="J13">
-        <v>0.1404650397831098</v>
+        <v>0.1275702736971669</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N13">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O13">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P13">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q13">
-        <v>5.321193133015554</v>
+        <v>83.22198522949867</v>
       </c>
       <c r="R13">
-        <v>47.89073819714</v>
+        <v>748.997867065488</v>
       </c>
       <c r="S13">
-        <v>5.575798238867381E-05</v>
+        <v>0.0005675516566334087</v>
       </c>
       <c r="T13">
-        <v>5.575798238867382E-05</v>
+        <v>0.0005675516566334086</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.86514766666667</v>
+        <v>13.49000166666667</v>
       </c>
       <c r="H14">
-        <v>56.595443</v>
+        <v>40.470005</v>
       </c>
       <c r="I14">
-        <v>0.0674163737579485</v>
+        <v>0.04408715897129705</v>
       </c>
       <c r="J14">
-        <v>0.0674163737579485</v>
+        <v>0.04408715897129704</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N14">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O14">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P14">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q14">
-        <v>0.7575111394073332</v>
+        <v>0.2139694131022222</v>
       </c>
       <c r="R14">
-        <v>6.817600254665999</v>
+        <v>1.92572471792</v>
       </c>
       <c r="S14">
-        <v>7.937560564798024E-06</v>
+        <v>1.459214107187623E-06</v>
       </c>
       <c r="T14">
-        <v>7.937560564798024E-06</v>
+        <v>1.459214107187622E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.86514766666667</v>
+        <v>13.49000166666667</v>
       </c>
       <c r="H15">
-        <v>56.595443</v>
+        <v>40.470005</v>
       </c>
       <c r="I15">
-        <v>0.0674163737579485</v>
+        <v>0.04408715897129705</v>
       </c>
       <c r="J15">
-        <v>0.0674163737579485</v>
+        <v>0.04408715897129704</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N15">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O15">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P15">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q15">
-        <v>53.84160935774088</v>
+        <v>134.8000737409855</v>
       </c>
       <c r="R15">
-        <v>484.5744842196679</v>
+        <v>1213.20066366887</v>
       </c>
       <c r="S15">
-        <v>0.0005641778885491159</v>
+        <v>0.0009193004102824968</v>
       </c>
       <c r="T15">
-        <v>0.000564177888549116</v>
+        <v>0.0009193004102824965</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.86514766666667</v>
+        <v>13.49000166666667</v>
       </c>
       <c r="H16">
-        <v>56.595443</v>
+        <v>40.470005</v>
       </c>
       <c r="I16">
-        <v>0.0674163737579485</v>
+        <v>0.04408715897129705</v>
       </c>
       <c r="J16">
-        <v>0.0674163737579485</v>
+        <v>0.04408715897129704</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N16">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O16">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P16">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q16">
-        <v>6376.644060729524</v>
+        <v>6300.871783775281</v>
       </c>
       <c r="R16">
-        <v>57389.79654656573</v>
+        <v>56707.84605397753</v>
       </c>
       <c r="S16">
-        <v>0.06681749719456367</v>
+        <v>0.04297025851107426</v>
       </c>
       <c r="T16">
-        <v>0.06681749719456367</v>
+        <v>0.04297025851107426</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.86514766666667</v>
+        <v>13.49000166666667</v>
       </c>
       <c r="H17">
-        <v>56.595443</v>
+        <v>40.470005</v>
       </c>
       <c r="I17">
-        <v>0.0674163737579485</v>
+        <v>0.04408715897129705</v>
       </c>
       <c r="J17">
-        <v>0.0674163737579485</v>
+        <v>0.04408715897129704</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N17">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O17">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P17">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q17">
-        <v>2.553913384052889</v>
+        <v>28.76078248001222</v>
       </c>
       <c r="R17">
-        <v>22.985220456476</v>
+        <v>258.84704232011</v>
       </c>
       <c r="S17">
-        <v>2.676111427091158E-05</v>
+        <v>0.0001961408358331034</v>
       </c>
       <c r="T17">
-        <v>2.676111427091159E-05</v>
+        <v>0.0001961408358331034</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>143.763153</v>
+        <v>179.9618073333334</v>
       </c>
       <c r="H18">
-        <v>431.289459</v>
+        <v>539.8854220000001</v>
       </c>
       <c r="I18">
-        <v>0.5137511047631061</v>
+        <v>0.5881396462886476</v>
       </c>
       <c r="J18">
-        <v>0.5137511047631063</v>
+        <v>0.5881396462886475</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N18">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O18">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P18">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q18">
-        <v>5.772665645561998</v>
+        <v>2.854434213383112</v>
       </c>
       <c r="R18">
-        <v>51.95399081005799</v>
+        <v>25.689907920448</v>
       </c>
       <c r="S18">
-        <v>6.048872524544907E-05</v>
+        <v>1.946647706239085E-05</v>
       </c>
       <c r="T18">
-        <v>6.048872524544908E-05</v>
+        <v>1.946647706239085E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>143.763153</v>
+        <v>179.9618073333334</v>
       </c>
       <c r="H19">
-        <v>431.289459</v>
+        <v>539.8854220000001</v>
       </c>
       <c r="I19">
-        <v>0.5137511047631061</v>
+        <v>0.5881396462886476</v>
       </c>
       <c r="J19">
-        <v>0.5137511047631063</v>
+        <v>0.5881396462886475</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N19">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O19">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P19">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q19">
-        <v>410.3036806618759</v>
+        <v>1798.28479629007</v>
       </c>
       <c r="R19">
-        <v>3692.733125956883</v>
+        <v>16184.56316661063</v>
       </c>
       <c r="S19">
-        <v>0.004299356333903252</v>
+        <v>0.01226382082112762</v>
       </c>
       <c r="T19">
-        <v>0.004299356333903254</v>
+        <v>0.01226382082112762</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>143.763153</v>
+        <v>179.9618073333334</v>
       </c>
       <c r="H20">
-        <v>431.289459</v>
+        <v>539.8854220000001</v>
       </c>
       <c r="I20">
-        <v>0.5137511047631061</v>
+        <v>0.5881396462886476</v>
       </c>
       <c r="J20">
-        <v>0.5137511047631063</v>
+        <v>0.5881396462886475</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N20">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O20">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P20">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q20">
-        <v>48593.65385986288</v>
+        <v>84056.05143738951</v>
       </c>
       <c r="R20">
-        <v>437342.884738766</v>
+        <v>756504.4629365057</v>
       </c>
       <c r="S20">
-        <v>0.509187324795344</v>
+        <v>0.5732397648505462</v>
       </c>
       <c r="T20">
-        <v>0.5091873247953442</v>
+        <v>0.573239764850546</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>143.763153</v>
+        <v>179.9618073333334</v>
       </c>
       <c r="H21">
-        <v>431.289459</v>
+        <v>539.8854220000001</v>
       </c>
       <c r="I21">
-        <v>0.5137511047631061</v>
+        <v>0.5881396462886476</v>
       </c>
       <c r="J21">
-        <v>0.5137511047631063</v>
+        <v>0.5881396462886475</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N21">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O21">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P21">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q21">
-        <v>19.462272284732</v>
+        <v>383.6798929545872</v>
       </c>
       <c r="R21">
-        <v>175.160450562588</v>
+        <v>3453.119036591284</v>
       </c>
       <c r="S21">
-        <v>0.0002039349086133779</v>
+        <v>0.002616594139911467</v>
       </c>
       <c r="T21">
-        <v>0.0002039349086133779</v>
+        <v>0.002616594139911466</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>43.17743033333334</v>
+        <v>18.301453</v>
       </c>
       <c r="H22">
-        <v>129.532291</v>
+        <v>54.904359</v>
       </c>
       <c r="I22">
-        <v>0.1542985950967704</v>
+        <v>0.05981163588811426</v>
       </c>
       <c r="J22">
-        <v>0.1542985950967704</v>
+        <v>0.05981163588811426</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N22">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O22">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P22">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q22">
-        <v>1.733746537604667</v>
+        <v>0.2902854465173333</v>
       </c>
       <c r="R22">
-        <v>15.603718838442</v>
+        <v>2.612569018656</v>
       </c>
       <c r="S22">
-        <v>1.816701752665038E-05</v>
+        <v>1.979669021510961E-06</v>
       </c>
       <c r="T22">
-        <v>1.816701752665038E-05</v>
+        <v>1.979669021510961E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>43.17743033333334</v>
+        <v>18.301453</v>
       </c>
       <c r="H23">
-        <v>129.532291</v>
+        <v>54.904359</v>
       </c>
       <c r="I23">
-        <v>0.1542985950967704</v>
+        <v>0.05981163588811426</v>
       </c>
       <c r="J23">
-        <v>0.1542985950967704</v>
+        <v>0.05981163588811426</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N23">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O23">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P23">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q23">
-        <v>123.2294799995685</v>
+        <v>182.8789406352073</v>
       </c>
       <c r="R23">
-        <v>1109.065319996116</v>
+        <v>1645.910465716866</v>
       </c>
       <c r="S23">
-        <v>0.001291256867364916</v>
+        <v>0.001247185409416122</v>
       </c>
       <c r="T23">
-        <v>0.001291256867364916</v>
+        <v>0.001247185409416121</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>43.17743033333334</v>
+        <v>18.301453</v>
       </c>
       <c r="H24">
-        <v>129.532291</v>
+        <v>54.904359</v>
       </c>
       <c r="I24">
-        <v>0.1542985950967704</v>
+        <v>0.05981163588811426</v>
       </c>
       <c r="J24">
-        <v>0.1542985950967704</v>
+        <v>0.05981163588811426</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N24">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O24">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P24">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q24">
-        <v>14594.48447250141</v>
+        <v>8548.190849726072</v>
       </c>
       <c r="R24">
-        <v>131350.3602525127</v>
+        <v>76933.71764753466</v>
       </c>
       <c r="S24">
-        <v>0.1529279219618072</v>
+        <v>0.05829637282265784</v>
       </c>
       <c r="T24">
-        <v>0.1529279219618072</v>
+        <v>0.05829637282265783</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>43.17743033333334</v>
+        <v>18.301453</v>
       </c>
       <c r="H25">
-        <v>129.532291</v>
+        <v>54.904359</v>
       </c>
       <c r="I25">
-        <v>0.1542985950967704</v>
+        <v>0.05981163588811426</v>
       </c>
       <c r="J25">
-        <v>0.1542985950967704</v>
+        <v>0.05981163588811426</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N25">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O25">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P25">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q25">
-        <v>5.845245378712445</v>
+        <v>39.01883200665534</v>
       </c>
       <c r="R25">
-        <v>52.60720840841201</v>
+        <v>351.169488059898</v>
       </c>
       <c r="S25">
-        <v>6.124925007167049E-05</v>
+        <v>0.0002660979870188</v>
       </c>
       <c r="T25">
-        <v>6.124925007167049E-05</v>
+        <v>0.0002660979870188</v>
       </c>
     </row>
   </sheetData>
